--- a/biology/Microbiologie/Acidithiobacillus_sulfuriphilus/Acidithiobacillus_sulfuriphilus.xlsx
+++ b/biology/Microbiologie/Acidithiobacillus_sulfuriphilus/Acidithiobacillus_sulfuriphilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidithiobacillus sulfuriphilus est une espèce du genre bactérien Acidithiobacillus composé de bactéries à Gram négatif de la famille Acidithiobacillaceae et incluse dans les Pseudomonadota. C'est une bactérie acidophile extrême et capable d'oxyder le soufre.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres[2]. L'étymologie de l'espèce Acidithiobacillus sulfuriphilus est la suivante : sul.fu.ri’phi.lus L. neut. n. sulfur, soufre; N.L. masc. adj. suff. -philus, ami, aimant; from Gr. masc. adj. philos; N.L. masc. adj. sulfuriphilus, qui aime le soufre[1],[3].
-Historique
-Cette espèce décrite en 2019, est l'une des plus récentes espèces en date dans le genre Acidithiobacillus[1],[4] et ainsi directement classée dans la classe des Acidithiobacillia créée en 2013[5].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acidithiobacillus a été nommé ainsi d'après les caractéristiques qui lui sont propres. L'étymologie de l'espèce Acidithiobacillus sulfuriphilus est la suivante : sul.fu.ri’phi.lus L. neut. n. sulfur, soufre; N.L. masc. adj. suff. -philus, ami, aimant; from Gr. masc. adj. philos; N.L. masc. adj. sulfuriphilus, qui aime le soufre,.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce décrite en 2019, est l'une des plus récentes espèces en date dans le genre Acidithiobacillus, et ainsi directement classée dans la classe des Acidithiobacillia créée en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Acidithiobacillus_sulfuriphilus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acidithiobacillus_sulfuriphilus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La souche type de cette espèce est la souche «CJ-2» dont les numéros d'accession sont DSM:105150 (collection DSMZ) et KCTC:4683 (dans la collection coréenne)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de cette espèce est la souche «CJ-2» dont les numéros d'accession sont DSM:105150 (collection DSMZ) et KCTC:4683 (dans la collection coréenne).
 </t>
         </is>
       </c>
